--- a/FYP_WEB_APP/wwwroot/DirFoeEx/Power_consumption_report.xlsx
+++ b/FYP_WEB_APP/wwwroot/DirFoeEx/Power_consumption_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>INB</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">2020-05-23 0kWh </t>
   </si>
   <si>
+    <t xml:space="preserve">2020-05-25 0kWh </t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-05-18 80.23kWh </t>
   </si>
   <si>
@@ -77,7 +80,10 @@
     <t xml:space="preserve">2020-05-22 23175.000004768kWh </t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-24 46.43kWh </t>
+    <t xml:space="preserve">2020-05-24 54.199999999999996kWh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-25 4.87kWh </t>
   </si>
 </sst>
 </file>
@@ -177,17 +183,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.926647186279297" customWidth="1"/>
+    <col min="2" max="2" width="19.832988739013672" customWidth="1"/>
     <col min="3" max="3" width="17.10038185119629" customWidth="1"/>
     <col min="4" max="4" width="18.19403839111328" customWidth="1"/>
     <col min="5" max="5" width="22.02030372619629" customWidth="1"/>
-    <col min="6" max="6" width="20.926647186279297" customWidth="1"/>
+    <col min="6" max="6" width="17.10038185119629" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -268,30 +274,38 @@
       <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
